--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -419,9 +419,43 @@
         <v>Tiempo</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>4214</v>
+      </c>
+      <c r="C2" t="str">
+        <v>421421</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>21312</v>
+      </c>
+      <c r="C3" t="str">
+        <v>12321</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>